--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_28.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>857958.4005812958</v>
+        <v>872665.7837897642</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779843</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>278692.0725916861</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7417223.818297898</v>
+        <v>7534044.430687118</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>126.5693288603553</v>
+        <v>26.96763366369089</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,25 +817,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>100.176219543324</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>69.98849254743202</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,13 +896,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>317.2778751268551</v>
       </c>
       <c r="E5" t="n">
-        <v>325.1742879987712</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,16 +1060,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>78.53609164711914</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>231.1621979137637</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>244.9247828940143</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>420.1696338988318</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,7 +1382,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1528,7 +1528,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>177.9326461527351</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>219.1192377452357</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.455696833728</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>195.8910553508158</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>39.47142524088513</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9742767430577</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2135,7 +2135,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633422</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>73.01514676193472</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292163</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2491,40 +2491,40 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2728,7 +2728,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225773</v>
+        <v>103.3456594571954</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2776,7 +2776,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2855,7 +2855,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>103.3456594571955</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3086,7 +3086,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655126</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225785</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3518,7 +3518,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>24.3431845617047</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3724,7 +3724,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3791,10 +3791,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>128.2505517358755</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3907,13 +3907,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>3.139541480023178</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>140.2653052259355</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3989,13 +3989,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>129.7853418074793</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>41.48733421943322</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.2911052642175</v>
+        <v>1642.62345942368</v>
       </c>
       <c r="C2" t="n">
-        <v>521.1890364880448</v>
+        <v>1608.521390647508</v>
       </c>
       <c r="D2" t="n">
-        <v>489.3196557028934</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>459.5853149015927</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>435.7582893512044</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4328,22 +4328,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4358,22 +4358,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1114.499252887282</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>709.6437982983157</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>581.7959913686639</v>
+        <v>1669.128345528127</v>
       </c>
       <c r="Y2" t="n">
-        <v>577.5502717087213</v>
+        <v>1664.882625868184</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>473.5714734656729</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>301.0097619488978</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>135.1317691504205</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1675.765608785789</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>1605.070161768181</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X4" t="n">
-        <v>1359.678407101594</v>
+        <v>892.8097628705518</v>
       </c>
       <c r="Y4" t="n">
-        <v>1132.258736415702</v>
+        <v>665.39009218466</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>846.6806259663152</v>
+        <v>1267.076121319345</v>
       </c>
       <c r="C5" t="n">
-        <v>418.0989517035836</v>
+        <v>828.9336485027686</v>
       </c>
       <c r="D5" t="n">
-        <v>386.2295709184322</v>
+        <v>508.4509463544301</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>74.67620151272524</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1733.888642131951</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2116.763874884885</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1697.621411464196</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1289.335287763849</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.8484307043673</v>
+        <v>773.6949256906678</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>601.1332141738927</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>435.2552213754154</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>190.3345608991025</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2275.739883052307</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1997.306882305412</v>
       </c>
       <c r="V7" t="n">
-        <v>1463.686260470555</v>
+        <v>1710.351374175843</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.659856056847</v>
+        <v>1438.324969762134</v>
       </c>
       <c r="X7" t="n">
-        <v>946.2681013902591</v>
+        <v>1192.933215095547</v>
       </c>
       <c r="Y7" t="n">
-        <v>718.8484307043673</v>
+        <v>965.513544409655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>844.4212598210011</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>810.3191910448285</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>778.4498102596771</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>748.7154694583763</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>724.8884439079882</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>323.4906125312521</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1277.130531135514</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1393.464329137293</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1134.24202645431</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>886.8432558542953</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>886.0282053057326</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>870.9261459254474</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>866.6804262655048</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.87917085155</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034974</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.1527660539752</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940405</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940405</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112634</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457494</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036805</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336458</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111518</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111518</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1219.236799527848</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1010.202862318824</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="C13" t="n">
-        <v>837.6411508020491</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7631580035718</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E13" t="n">
-        <v>502.0051542543091</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>325.2981002160653</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>325.2981002160653</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>185.3959259064399</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.977765289286</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2512.247819680463</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2233.814818933568</v>
+        <v>2092.467071671005</v>
       </c>
       <c r="V13" t="n">
-        <v>1946.859310803998</v>
+        <v>1805.511563541435</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.83290639029</v>
+        <v>1533.485159127727</v>
       </c>
       <c r="X13" t="n">
-        <v>1429.441151723703</v>
+        <v>1288.093404461139</v>
       </c>
       <c r="Y13" t="n">
-        <v>1202.021481037811</v>
+        <v>1060.673733775247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984731</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168154</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342599</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500894</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101018</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333657</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2312.656441940406</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928798</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245815</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179641</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590675</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169986</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469639</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111519</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>399.5136330486504</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>399.5136330486504</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1219.236799527848</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1759.975738159924</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580465</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111519</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1837.496881423524</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1565.470477009816</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1320.078722343228</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1092.659051657336</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.528123727751</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510149</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423112</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2443.248294085327</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3423.427960655633</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4251.737835489029</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4760.0133563155</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068556</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>4845.515547252393</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.645420746449</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063465</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997292</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493062</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958595</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228132</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389748</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051587</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>98.58334842137113</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>423.1416733875835</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.875193457961</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.875193457961</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.875193457961</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.875193457961</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.875193457961</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1088.981559807928</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>916.4198482911528</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>750.5418554926755</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>580.7838517434127</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>404.0767977051689</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>238.4855227309966</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137113</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.163033586061</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571966</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251576</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489497</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459839</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2591.026517169567</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2591.026517169567</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2312.593516422672</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>2025.638008293103</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1753.611603879394</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1508.219849212807</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.800178526915</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5762,37 +5762,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>441.3805170312518</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>264.673462993008</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>264.673462993008</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436394</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236972</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
         <v>1371.865819681875</v>
@@ -5996,25 +5996,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423617</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423617</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993923</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785914</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.04201353897</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722807</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
         <v>4809.322912595856</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620722</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987145</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452677</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722214</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.381582188383</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545669</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.324513431237</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974493</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6087,7 +6087,7 @@
         <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655248</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626146</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418353</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.996046390395</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736199</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258799</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876361</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>120.5000093134638</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707794</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354693</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066048</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745659</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
         <v>2203.220781338905</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,22 +6233,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
         <v>5029.390139722817</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258799</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F28" t="n">
-        <v>286.0912842876362</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134638</v>
+        <v>206.6503952780477</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="29">
@@ -6449,55 +6449,55 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
@@ -6506,7 +6506,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
         <v>780.1951658309357</v>
@@ -6643,22 +6643,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
         <v>1371.99516675259</v>
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3603.973621145286</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.973621145286</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,25 +7011,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7129,7 +7129,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
         <v>1617.386921419177</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7172,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731394</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238767</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>126.8499155856328</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2527.052675911533</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2088.910203094956</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1653.000418269401</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1219.225673427696</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>791.3582438369035</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>389.9604124601674</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>100.8302579033837</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>100.4134685305237</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>464.8941494745793</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1539.954115727439</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1539.954115727439</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163886</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734192</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.174640567588</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526183</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526183</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.02155271002</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.4755408556</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4548.253238172617</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.636288106443</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3780.780833517476</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3361.638370096787</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.35224639644</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218164</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584587</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1672.507925359646</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457715</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788285</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223588</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015795</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.489484653508</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C43" t="n">
-        <v>615.927773136733</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D43" t="n">
-        <v>450.0497803382556</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E43" t="n">
-        <v>280.2917765889929</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F43" t="n">
-        <v>103.5847225507491</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>103.5847225507491</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952135</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2417.996954980732</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2139.563954233837</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138683</v>
+        <v>1852.608446104267</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724975</v>
+        <v>1580.582041690559</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058387</v>
+        <v>1335.190287023971</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.3081033724952</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168568</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526436</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>944.829865684731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>516.9624360939387</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>96.73597668111519</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>96.73597668111519</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>96.73597668111519</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1186.925458503959</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940406</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510713</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344109</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302703</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112635</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429652</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363478</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774512</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653476</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.77217639691919</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>421.3305013631315</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.109260520272</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>879.5475490034968</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>713.6695562050195</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>543.9115524557568</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>367.204498417513</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111519</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.3156618458051</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2554.154217881911</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2275.721217135016</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1988.765709005447</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1716.739304591738</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1471.347549925151</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1243.927879239259</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,14 +7976,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -7991,10 +7991,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8213,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8690,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328638</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.409616996435</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,16 +9474,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352346</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,7 +9881,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,22 +10118,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10358,19 +10358,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10422,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,19 +10595,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>368.1623039838945</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1101.201496790752</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.38105307846809</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.4880058045942</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>56.52943299419005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>184.7831561774879</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>88.194897697458</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3951296148066</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.67467827192561</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>65.48800580459451</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142715</v>
+        <v>35.15749310933383</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.146865729423709</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627256</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627254</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>89.61600311981624</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.363611086506</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>103.1553467313937</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>267.5985112554894</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>122.4480280049974</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>612011.8586477382</v>
+        <v>628921.6218787719</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>612011.8586477382</v>
+        <v>631966.2619400059</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>633957.7090260967</v>
+        <v>660711.4487819003</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>633957.7090260967</v>
+        <v>660711.4487819001</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>642903.46885689</v>
+        <v>660711.4487819001</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>660711.4487819</v>
+        <v>660711.4487819001</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651765.6889511067</v>
+        <v>660711.4487819001</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633957.7090260969</v>
+        <v>660711.4487819001</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.123923286</v>
       </c>
       <c r="D2" t="n">
-        <v>375303.1239232861</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
-        <v>353866.7285801736</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="F2" t="n">
-        <v>353866.7285801736</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="G2" t="n">
-        <v>358860.1322740098</v>
+        <v>368800.3088961468</v>
       </c>
       <c r="H2" t="n">
         <v>368800.3088961467</v>
@@ -26338,10 +26338,10 @@
         <v>368800.3088961467</v>
       </c>
       <c r="K2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
         <v>368800.3088961467</v>
@@ -26350,10 +26350,10 @@
         <v>368800.3088961467</v>
       </c>
       <c r="O2" t="n">
-        <v>363806.9052023105</v>
+        <v>368800.3088961467</v>
       </c>
       <c r="P2" t="n">
-        <v>353866.7285801736</v>
+        <v>368800.3088961466</v>
       </c>
     </row>
     <row r="3">
@@ -26366,37 +26366,37 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850636</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996311</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449909</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830678</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909371</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742197</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
       </c>
       <c r="I4" t="n">
-        <v>108317.3178284628</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="J4" t="n">
         <v>108317.3178284629</v>
@@ -26454,10 +26454,10 @@
         <v>108317.3178284629</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312483</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024205</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579234</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26497,19 +26497,19 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319797</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764753</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-44538.23090621526</v>
+        <v>-44538.2309062154</v>
       </c>
       <c r="C6" t="n">
-        <v>97653.06975349464</v>
+        <v>48794.64242933043</v>
       </c>
       <c r="D6" t="n">
-        <v>97653.06975349464</v>
+        <v>107047.0215382176</v>
       </c>
       <c r="E6" t="n">
-        <v>-57938.93399651645</v>
+        <v>386.4189014588437</v>
       </c>
       <c r="F6" t="n">
-        <v>176416.0880255208</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="G6" t="n">
-        <v>172209.7064566973</v>
+        <v>182741.5281225087</v>
       </c>
       <c r="H6" t="n">
-        <v>170361.9974819281</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="I6" t="n">
-        <v>182764.7524618922</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="J6" t="n">
-        <v>71750.28711690038</v>
+        <v>71727.06277751838</v>
       </c>
       <c r="K6" t="n">
-        <v>182764.7524618912</v>
+        <v>129695.6734837361</v>
       </c>
       <c r="L6" t="n">
-        <v>182764.7524618913</v>
+        <v>173349.2263958861</v>
       </c>
       <c r="M6" t="n">
-        <v>-12836.42682117643</v>
+        <v>30541.35718452092</v>
       </c>
       <c r="N6" t="n">
-        <v>182764.7524618913</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="O6" t="n">
-        <v>180641.9229878642</v>
+        <v>182741.5281225086</v>
       </c>
       <c r="P6" t="n">
-        <v>176416.0880255208</v>
+        <v>182741.5281225085</v>
       </c>
     </row>
   </sheetData>
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267139</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384743</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319932</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760583</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201071</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938355</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319932</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760583</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,19 +27382,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>288.3817099261271</v>
+        <v>387.9834051227915</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>67.88420416844608</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -27594,10 +27594,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>199.3176478221393</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,13 +27616,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>114.2728118504448</v>
       </c>
       <c r="E5" t="n">
-        <v>104.2627093945165</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>89.52433206465098</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27825,13 +27825,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.92375513451015</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>369.8422500230728</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>114.0659976714974</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,14 +34696,14 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
@@ -34711,10 +34711,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,19 +35100,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L11" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>305.8360165328638</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>955.8742281294903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>305.8360165328638</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,13 +35741,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>513.409616996435</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36054,7 +36054,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36358,16 +36358,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352346</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36601,7 +36601,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37078,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>801.4298400828725</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.03656536949893052</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37315,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>368.1623039838945</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1101.201496790752</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.03656536949898737</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
